--- a/hardware/BOM/Plug_Pass_Bill-of-Materials.xlsx
+++ b/hardware/BOM/Plug_Pass_Bill-of-Materials.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KiCad\Plug_Pass\Plug_Pass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\Plug-Pass\hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC1D64-BF00-4A67-81A5-EE83D4D56C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-35325" yWindow="3930" windowWidth="21600" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plug_Pass" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="218">
   <si>
     <t xml:space="preserve">    B1</t>
   </si>
@@ -48,21 +60,9 @@
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>&gt;  C6, C15</t>
-  </si>
-  <si>
     <t>22pF</t>
   </si>
   <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 50VDC 0.22nF 5% C0G</t>
-  </si>
-  <si>
-    <t>C1005C0G1H221J050BE</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
     <t>&gt;  C1-C3, C8, C17, C18, C20</t>
   </si>
   <si>
@@ -78,18 +78,6 @@
     <t>KEMET</t>
   </si>
   <si>
-    <t>&gt;  C10, C13</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 100pF C0G 0603 1% Flex AEC-Q200</t>
-  </si>
-  <si>
-    <t>C0603X101F5GACAUTO</t>
-  </si>
-  <si>
     <t>&gt;  C11, C14</t>
   </si>
   <si>
@@ -234,18 +222,6 @@
     <t xml:space="preserve">    IC3</t>
   </si>
   <si>
-    <t>VREG_SOT23-5</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 200MA SOT23-5</t>
-  </si>
-  <si>
-    <t>TLV70033DDCR</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t xml:space="preserve">    IC4</t>
   </si>
   <si>
@@ -366,15 +342,6 @@
     <t>HSMG-C190</t>
   </si>
   <si>
-    <t>&gt;  R1, R6</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 1.5 OHM 1%</t>
-  </si>
-  <si>
-    <t>RC0402FR-071R5L</t>
-  </si>
-  <si>
     <t>Yageo</t>
   </si>
   <si>
@@ -501,18 +468,6 @@
     <t xml:space="preserve">    Y2</t>
   </si>
   <si>
-    <t>16MHz</t>
-  </si>
-  <si>
-    <t>Resonators 16.0MHz 5pF 0.5% Cer Res Thk Exp mode</t>
-  </si>
-  <si>
-    <t>CSTNE16M0V51Z000R0</t>
-  </si>
-  <si>
-    <t>Refreence</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -549,9 +504,6 @@
     <t>HVQFN40-6X6</t>
   </si>
   <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
     <t>MOLEX_1051330001</t>
   </si>
   <si>
@@ -607,13 +559,139 @@
   </si>
   <si>
     <t>RELAY GEN PURPOSE SPST 30A 5V</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Yageo/CC0603JRNPO9BN220?qs=vTakOoo5QyIVMYOUTI%2F4zA%3D%3D</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN150</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 15pF C0G 0805 5%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Yageo/CC0805JRNPO9BN150?qs=vTakOoo5QyIdTjxE3H8vpA%3D%3D</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 22pF 50V NPO 5%</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN620</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 62pF 50V NPO 5%</t>
+  </si>
+  <si>
+    <t>62pF</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>C10, C13</t>
+  </si>
+  <si>
+    <t>C6, C15</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R1, R6</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>NPTC081KFXC-RC</t>
+  </si>
+  <si>
+    <t>PinSocket_1x08_P2.54mm_Vertical_SMD_Pin1Right</t>
+  </si>
+  <si>
+    <t>CONN HDR 8POS 0.1 TIN SMD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/NPTC081KFXC-RC/776058</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Yageo/CC0805JRNPO9BN620?qs=57cj7OiSijn%2FWRr%252BD6Xa6w%3D%3D</t>
+  </si>
+  <si>
+    <t>1N4148WS</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 75V 150MA SOD323F</t>
+  </si>
+  <si>
+    <t>SODFL2512X100N</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/on-semiconductor/1N4148WS/1873805?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_EN_RLSA&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwnueFBhChARIsAPu3YkQ9EXmpjtxXGnf24taJjifwK6zSArHENBh-SFV18EKqnV_CuiHir4YaAhs4EALw_wcB</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>1x8</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>RK73B2ATTD2R0J</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/4watts 2ohms 5%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KOA-Speer/RK73B2ATTD2R0J?qs=rx%252BqewZzWUdjzAQpUO86bw%3D%3D</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>RC0402JR-7D4K7L</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Yageo/RC0402JR-7D4K7L?qs=HEu%2FF%2FCqxzL%2FxemeTzhmAg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/Semiconductors/Discrete-Semiconductors/Transistors/Bipolar-Transistors-BJT/_/N-ax1sh?Keyword=2n3904&amp;FS=True&amp;gclid=Cj0KCQjwweyFBhDvARIsAA67M71zmyfnOMAzUh6sn-KZXeJVcW5AhMyUS8LsMOUXbZxzAiGnUouD5sAaAjs7EALw_wcB</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 4.7 kOhms 62.5 mW 0402 5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +826,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1046,7 +1144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1089,15 +1187,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1131,6 +1236,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1416,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,37 +1535,38 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1505,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1517,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,28 +1632,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,28 +1661,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1592,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1601,10 +1708,10 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1621,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1630,10 +1737,10 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1650,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1659,10 +1766,10 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,19 +1786,19 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1708,7 +1815,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1720,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -1737,19 +1844,19 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>187</v>
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,28 +1864,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1789,25 +1896,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,25 +1925,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,25 +1954,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1873,28 +1980,28 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1905,25 +2012,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,25 +2041,25 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>176</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
       </c>
       <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
         <v>73</v>
       </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1963,25 +2070,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1992,25 +2099,25 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2021,25 +2128,25 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2047,28 +2154,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2076,28 +2183,28 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,28 +2212,28 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>58</v>
-      </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,28 +2241,28 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
-      <c r="E25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" t="s">
-        <v>104</v>
-      </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2163,28 +2270,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
         <v>105</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>107</v>
       </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2195,25 +2302,25 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
         <v>111</v>
       </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
-      </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2221,28 +2328,28 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
         <v>115</v>
       </c>
-      <c r="D28">
-        <v>1.5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
-      </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2250,28 +2357,28 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="D29" s="5">
+        <v>330</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,25 +2389,25 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,25 +2418,25 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2337,31 +2444,31 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32">
-        <v>330</v>
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2369,28 +2476,28 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>194</v>
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>194</v>
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2398,28 +2505,28 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
         <v>136</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>137</v>
       </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" t="s">
-        <v>139</v>
-      </c>
       <c r="I34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2427,28 +2534,28 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2456,144 +2563,316 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
         <v>153</v>
       </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
+      <c r="F43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>190</v>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J38" r:id="rId1" xr:uid="{C9A01601-91A1-4533-8F16-1E7E8D49ADFB}"/>
+    <hyperlink ref="J41" r:id="rId2" display="https://www.digikey.com/en/products/detail/on-semiconductor/1N4148WS/1873805?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_EN_RLSA&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwnueFBhChARIsAPu3YkQ9EXmpjtxXGnf24taJjifwK6zSArHENBh-SFV18EKqnV_CuiHir4YaAhs4EALw_wcB" xr:uid="{C6AC7381-35DC-4F11-BACE-A77F7C799DD8}"/>
+    <hyperlink ref="J43" r:id="rId3" xr:uid="{88830854-FC48-4BED-AECF-76F65D698E3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>